--- a/Excel/怪物表.xlsx
+++ b/Excel/怪物表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshuo/Cartoon_reign/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D812EFD1-4670-BC4D-8043-4C845142E489}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EA2F8F-E887-5F40-A353-966D7E956BDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>最大血量</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -56,6 +56,22 @@
   </si>
   <si>
     <t>Prefabs/Avatars/monster_02.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -439,23 +455,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="38.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:7" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -463,98 +480,110 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="16">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="16">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
         <v>150</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="16">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="16">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
         <v>100</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>15</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="16">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="16">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3">
         <v>100</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>15</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="D11" s="1"/>
+    <row r="5" spans="1:7" s="3" customFormat="1">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
